--- a/xlsx/Mercury_intext.xlsx
+++ b/xlsx/Mercury_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
   </si>
   <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_Mercury</t>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_Mercury</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E4%B8%98%E5%88%A9</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E6%B0%B4%E6%98%9F</t>
   </si>
   <si>
-    <t>鳳凰城水星</t>
+    <t>凤凰城水星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/WNBA</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>克里特島戰役</t>
+    <t>克里特岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SPICA_(%E7%B5%84%E5%90%88)</t>
   </si>
   <si>
-    <t>SPICA (組合)</t>
+    <t>SPICA (组合)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%8E%B1%E8%BF%AA%C2%B7%E6%91%A9%E5%85%8B%E7%91%9E</t>
